--- a/biology/Médecine/Médecins_de_combat/Médecins_de_combat.xlsx
+++ b/biology/Médecine/Médecins_de_combat/Médecins_de_combat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decins_de_combat</t>
+          <t>Médecins_de_combat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médecins de combat (Combat Hospital) est une série télévisée canadienne en treize épisodes de 42 minutes, créée par Jinder Oujla-Chalmers, Daniel Petrie Jr. et Douglas Steinberg, et diffusée en simultanée entre le 21 juin[1] et le 6 septembre 2011 sur le réseau Global au Canada et sur le réseau ABC aux États-Unis.
-Au Québec, la série a été diffusée du 4 mai au 27 juillet 2013 à la Télévision de Radio-Canada[2]. Néanmoins, elle reste inédite dans les autres pays francophones.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecins de combat (Combat Hospital) est une série télévisée canadienne en treize épisodes de 42 minutes, créée par Jinder Oujla-Chalmers, Daniel Petrie Jr. et Douglas Steinberg, et diffusée en simultanée entre le 21 juin et le 6 septembre 2011 sur le réseau Global au Canada et sur le réseau ABC aux États-Unis.
+Au Québec, la série a été diffusée du 4 mai au 27 juillet 2013 à la Télévision de Radio-Canada. Néanmoins, elle reste inédite dans les autres pays francophones.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9decins_de_combat</t>
+          <t>Médecins_de_combat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série se focalise sur les aventures, les joies, les atermoiements et les doutes du personnel d'un hôpital militaire basé à Kandahar, en Afghanistan, en 2006.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9decins_de_combat</t>
+          <t>Médecins_de_combat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,17 +559,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acteurs principaux
-Elias Koteas (VQ : Marc Bellier) : Colonel Xavier Marks
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elias Koteas (VQ : Marc Bellier) : Colonel Xavier Marks
 Michelle Borth (VQ : Rose-Maïté Erkoreka) : Major Rebecca Gordon
 Luke Mably (VQ : David Laurin) : Simon Hill, médecin civil britannique
 Terry Chen (VQ : Antoine Durand) : Capitaine Bobby Trang
 Deborah Kara Unger (VQ : Nathalie Coupal) : Major Grace Pedersen
 Arnold Pinnock (en) (VQ : Marc-André Bélanger) : Capitaine de Frégate (traduit comme "Commandant") Will Royal
 Gord Rand (VQ : Tristan Harvey) : Adjudant-Chef Graham Kelly, de l'armée canadienne
-Karan Oberoi (en) (VQ : Kevin Houle) : Talwar Mehra, de l'armée américaine
-Acteurs récurrents
-Ellen Wong (VQ : Annie Girard) : Major Suzy Chao, de l'armée canadienne
+Karan Oberoi (en) (VQ : Kevin Houle) : Talwar Mehra, de l'armée américaine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Médecins_de_combat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decins_de_combat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ellen Wong (VQ : Annie Girard) : Major Suzy Chao, de l'armée canadienne
 Lisa Berry (VQ : Geneviève Désilets) : Capitaine Pam Everwood
 Dwain Murphy (en) (VQ : Nicholas Savard L'Herbier) : Terrel Ford, de l'armée américaine
 Hamza Jeetooa (de) (VQ : Aliocha Schneider) : Vans, traducteur afghan
@@ -566,70 +619,74 @@
 Anne Bedian (VQ : Élisabeth Lenormand) : Hasti Samizay
 Daniel DeSanto (VQ : Fred-Éric Salvail) : Major Glad Marin
 Adam Beach : Snake Eater / Joe
- Source et légende : version québécoise (VQ) sur Doublage.qc.ca[3]
+ Source et légende : version québécoise (VQ) sur Doublage.qc.ca
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M%C3%A9decins_de_combat</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Médecins_de_combat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9decins_de_combat</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La série portait le titre The Hot Zone avant d'adopter son titre actuel.
 La série a été tournée à Etobicoke, dans la partie ouest de Toronto en Ontario sur l'ancien terrain de l'usine Consumers Glass.
 L'épisode 11, Brothers in Arms, n'a pas été diffusé aux États-Unis, sans explication. Il a été diffusé au Canada immédiatement avant l'épisode 12, Triage.
-Malgré les bonnes cotes d'écoutes au Canada et les cotes d'écoutes moyennes aux États-Unis, ABC a décidé de ne pas renouveler la série. Global n'a pas été en mesure de trouver une partenaire afin d'amortir les coûts de production, et a officiellement annoncé l'annulation de la série le 16 décembre 2011[4].
+Malgré les bonnes cotes d'écoutes au Canada et les cotes d'écoutes moyennes aux États-Unis, ABC a décidé de ne pas renouveler la série. Global n'a pas été en mesure de trouver une partenaire afin d'amortir les coûts de production, et a officiellement annoncé l'annulation de la série le 16 décembre 2011.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M%C3%A9decins_de_combat</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Médecins_de_combat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9decins_de_combat</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bienvenue à Kandahar (Welcome to Kandahar)
 Ennemi inconnu (Enemy Within)
@@ -647,34 +704,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M%C3%A9decins_de_combat</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Médecins_de_combat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9decins_de_combat</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Autour de la série</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Personnages
-Major Rebecca Gordon : jeune canadienne, chirurgien viscéral, désorientée par les contradictions de son dévouement aux patients et blessés avec la guerre en Afghanistan, ainsi que certaines de ses convictions.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Major Rebecca Gordon : jeune canadienne, chirurgien viscéral, désorientée par les contradictions de son dévouement aux patients et blessés avec la guerre en Afghanistan, ainsi que certaines de ses convictions.
 Colonel Xavier Marks : chirurgien militaire de carrière canadien, chef de l'unité médicale multinationale Role 3. Il doit parfois prendre des décisions injustes aux yeux de son personnel quant à l'état de certains patients. Il enfourche souvent son vélo de course remisé dans son bureau pour faire le tour du périmètre intérieur afin de souffler un peu. Marié, il est dévoué à son épouse restée chez eux au Canada.
 Capitaine Bobby Trang : praticien général dans l'US Army, chef de l'équipe de chirurgie spécialisée dans les traumatismes. Il est le meilleur ami de Rebecca (il est arrivé en même temps qu'elle dans l'unité) et à l'occasion, son confident le plus sollicité.
 Capitaine de frégate ("Commandant") Will Royal : infirmier canadien, chef de l'équipe des infirmiers de l'unité Role 3 de l'hôpital. Il est le commandant en second de l'unité, subordonné du colonel Marks, et tient à ce que l'on n'oublie pas le rôle des infirmiers dans l'unité. Il est également marié et est une figure paternelle pour l'unité.
@@ -683,33 +745,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>M%C3%A9decins_de_combat</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Médecins_de_combat</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9decins_de_combat</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pilote a attiré 1,963 millions de téléspectateurs au Canada[5] et 5,32 millions aux États-Unis[6]. Les audiences se sont tenus à 1,463 millions en moyenne au Canada.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pilote a attiré 1,963 millions de téléspectateurs au Canada et 5,32 millions aux États-Unis. Les audiences se sont tenus à 1,463 millions en moyenne au Canada.
 </t>
         </is>
       </c>
